--- a/P1/Usability-review-template.xlsx
+++ b/P1/Usability-review-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoyol\Documents\INGENIERÍA_INFORMÁTICA_3º\2º Cuatimiestre\DIU\DIU\P1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6372247C-6574-47F9-B8AE-0213CC8E9FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8A86F9-9AC9-46D0-9E9B-5447721656F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -797,7 +797,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="223">
   <si>
     <t>Usability guidelines</t>
   </si>
@@ -1860,6 +1860,66 @@
   <si>
     <t>La página se ajusta correctamente a dispositivos móviles, sin embargo, si en ordenador no está en pantalla completa no se visualizan todos los lementeos correctamente.</t>
   </si>
+  <si>
+    <t>Granada Cooking</t>
+  </si>
+  <si>
+    <t>Todo lo que el usuario necesita se encuentra en la página de forma más o menos clara.</t>
+  </si>
+  <si>
+    <t>Todas las tareas principales a realizar por el usuario son fáciles de identificar en la página principal.</t>
+  </si>
+  <si>
+    <t>La página de inicio está llena de fotos y enlaces a los diferentes talleres a elegir</t>
+  </si>
+  <si>
+    <t>El esquema de navegación consta de una zona con enlaces a las diferentes pestañas de la página y con un sistema de búsqueda, el cual es bastante mejorable.</t>
+  </si>
+  <si>
+    <t>El diseño de la página es fácil de entender.</t>
+  </si>
+  <si>
+    <t>El nombre de la ubicación actual aparece resaltado.</t>
+  </si>
+  <si>
+    <t>Se muestra un mensaje de error cuando no se ha podido realizar una acción concreta.</t>
+  </si>
+  <si>
+    <t>Se pueden deshacer las acciones.</t>
+  </si>
+  <si>
+    <t>Hay un apartado de contacto con un número, un correo y un formulario en línea.</t>
+  </si>
+  <si>
+    <t>Los formularios tienen todas las secciones claramente separadas de manera comprensible.</t>
+  </si>
+  <si>
+    <t>Hay campos obligatorios, por ejemplo, al realizar un pedido, con su debida justificación y mensaje de error si no completas el campo.</t>
+  </si>
+  <si>
+    <t>Los campos de entrada se ajustan debidamente según la situación.</t>
+  </si>
+  <si>
+    <t>Los errores no siempre aparecen en la ubicación adecuada, ya que si al realizar un pedido dejas campos sin rellenar, los mensajes de error aparecerán al principio de la página, uno debajo de otro.</t>
+  </si>
+  <si>
+    <t>Los mensajes de error dejan clar cuál es el problema.</t>
+  </si>
+  <si>
+    <t>Cuando se produce un error al rellenar datos, no hace falta rellenar todos los campos de nuevo, se guardan los que ya habíamos completado.</t>
+  </si>
+  <si>
+    <t>No hay realmente enlaces a otras páginas, ya que todo lo que ofertan se puede encontrar en su página.</t>
+  </si>
+  <si>
+    <t>El lenguaje utilzado es en todo momento claro y comprensible para el usuario.</t>
+  </si>
+  <si>
+    <t>No siempre hay una buena tipografía y contraste, ya que hay enlaces en los que los colores no generan un buen contraste, lo que hace que quede peor visualmente y sea más complicado de leer.</t>
+  </si>
+  <si>
+    <t>No hay mucha ayuda en línea.</t>
+  </si>
 </sst>
 </file>
 
@@ -2478,13 +2538,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2502,11 +2562,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -2829,8 +2889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="I116" sqref="I116"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2851,17 +2911,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="98"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="86"/>
       <c r="J1" s="4"/>
       <c r="K1" s="6"/>
       <c r="L1" s="5"/>
@@ -2908,10 +2968,10 @@
       <c r="V2" s="10"/>
     </row>
     <row r="3" spans="1:22" ht="24" customHeight="1">
-      <c r="A3" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="85"/>
+      <c r="A3" s="87" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="88"/>
       <c r="C3" s="23"/>
       <c r="D3" s="24" t="s">
         <v>10</v>
@@ -3038,19 +3098,19 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="84" t="s">
+      <c r="K7" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="84" t="s">
+      <c r="L7" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="84" t="s">
+      <c r="M7" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="86" t="s">
+      <c r="N7" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="86" t="s">
+      <c r="O7" s="99" t="s">
         <v>33</v>
       </c>
       <c r="P7" s="18"/>
@@ -3075,11 +3135,11 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="85"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
       <c r="P8" s="18"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="39"/>
@@ -3109,7 +3169,9 @@
         <v>#REF!</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="43"/>
+      <c r="I9" s="43" t="s">
+        <v>204</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="44">
         <v>5</v>
@@ -3259,7 +3321,9 @@
         <v>#REF!</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="43"/>
+      <c r="I13" s="43" t="s">
+        <v>205</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="44">
         <v>4</v>
@@ -3560,7 +3624,9 @@
         <v>#REF!</v>
       </c>
       <c r="H23" s="1"/>
-      <c r="I23" s="43"/>
+      <c r="I23" s="43" t="s">
+        <v>206</v>
+      </c>
       <c r="J23" s="1"/>
       <c r="K23" s="44">
         <v>4</v>
@@ -3784,7 +3850,7 @@
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="e">
@@ -3796,7 +3862,9 @@
         <v>#REF!</v>
       </c>
       <c r="H31" s="1"/>
-      <c r="I31" s="43"/>
+      <c r="I31" s="43" t="s">
+        <v>207</v>
+      </c>
       <c r="J31" s="1"/>
       <c r="K31" s="44">
         <v>4</v>
@@ -3807,11 +3875,11 @@
       </c>
       <c r="M31" s="46">
         <f>VLOOKUP(D31,Q1:R9,2,FALSE)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N31" s="46">
         <f>M31*L31</f>
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O31" s="46">
         <f>IF(M31=0,0,L31*MAX(R2:R8))</f>
@@ -3914,7 +3982,9 @@
         <v>#REF!</v>
       </c>
       <c r="H35" s="1"/>
-      <c r="I35" s="43"/>
+      <c r="I35" s="43" t="s">
+        <v>208</v>
+      </c>
       <c r="J35" s="1"/>
       <c r="K35" s="44">
         <v>5</v>
@@ -4106,7 +4176,9 @@
         <v>#REF!</v>
       </c>
       <c r="H41" s="1"/>
-      <c r="I41" s="43"/>
+      <c r="I41" s="43" t="s">
+        <v>209</v>
+      </c>
       <c r="J41" s="1"/>
       <c r="K41" s="44">
         <v>2</v>
@@ -4609,7 +4681,9 @@
         <v>#REF!</v>
       </c>
       <c r="H59" s="1"/>
-      <c r="I59" s="43"/>
+      <c r="I59" s="43" t="s">
+        <v>210</v>
+      </c>
       <c r="J59" s="1"/>
       <c r="K59" s="44">
         <v>4</v>
@@ -4670,7 +4744,9 @@
         <v>#REF!</v>
       </c>
       <c r="H61" s="1"/>
-      <c r="I61" s="43"/>
+      <c r="I61" s="43" t="s">
+        <v>211</v>
+      </c>
       <c r="J61" s="1"/>
       <c r="K61" s="44">
         <v>3</v>
@@ -4731,7 +4807,9 @@
         <v>#REF!</v>
       </c>
       <c r="H63" s="1"/>
-      <c r="I63" s="43"/>
+      <c r="I63" s="43" t="s">
+        <v>212</v>
+      </c>
       <c r="J63" s="1"/>
       <c r="K63" s="44">
         <v>1</v>
@@ -4825,7 +4903,9 @@
         <v>#REF!</v>
       </c>
       <c r="H67" s="1"/>
-      <c r="I67" s="43"/>
+      <c r="I67" s="43" t="s">
+        <v>213</v>
+      </c>
       <c r="J67" s="1"/>
       <c r="K67" s="44">
         <v>3</v>
@@ -4886,7 +4966,9 @@
         <v>#REF!</v>
       </c>
       <c r="H69" s="1"/>
-      <c r="I69" s="43"/>
+      <c r="I69" s="43" t="s">
+        <v>214</v>
+      </c>
       <c r="J69" s="1"/>
       <c r="K69" s="44">
         <v>2</v>
@@ -4996,7 +5078,7 @@
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="e">
@@ -5008,7 +5090,9 @@
         <v>#REF!</v>
       </c>
       <c r="H73" s="1"/>
-      <c r="I73" s="43"/>
+      <c r="I73" s="43" t="s">
+        <v>215</v>
+      </c>
       <c r="J73" s="1"/>
       <c r="K73" s="44">
         <v>3</v>
@@ -5019,11 +5103,11 @@
       </c>
       <c r="M73" s="46">
         <f>VLOOKUP(D73,Q1:R9,2,FALSE)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N73" s="46">
         <f>M73*L73</f>
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="O73" s="46">
         <f>IF(M73=0,0,L73*MAX(R2:R8))</f>
@@ -5153,7 +5237,7 @@
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="42" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="e">
@@ -5165,7 +5249,9 @@
         <v>#REF!</v>
       </c>
       <c r="H79" s="1"/>
-      <c r="I79" s="43"/>
+      <c r="I79" s="43" t="s">
+        <v>216</v>
+      </c>
       <c r="J79" s="1"/>
       <c r="K79" s="44">
         <v>4</v>
@@ -5176,11 +5262,11 @@
       </c>
       <c r="M79" s="46">
         <f>VLOOKUP(D79,Q1:R9,2,FALSE)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N79" s="46">
         <f>M79*L79</f>
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="O79" s="46">
         <f>IF(M79=0,0,L79*MAX(R2:R8))</f>
@@ -5226,7 +5312,9 @@
         <v>#REF!</v>
       </c>
       <c r="H81" s="1"/>
-      <c r="I81" s="43"/>
+      <c r="I81" s="43" t="s">
+        <v>217</v>
+      </c>
       <c r="J81" s="1"/>
       <c r="K81" s="44">
         <v>3</v>
@@ -5348,7 +5436,9 @@
         <v>#REF!</v>
       </c>
       <c r="H85" s="1"/>
-      <c r="I85" s="43"/>
+      <c r="I85" s="43" t="s">
+        <v>218</v>
+      </c>
       <c r="J85" s="1"/>
       <c r="K85" s="44">
         <v>3</v>
@@ -5493,7 +5583,7 @@
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="42" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="e">
@@ -5505,7 +5595,9 @@
         <v>#REF!</v>
       </c>
       <c r="H91" s="1"/>
-      <c r="I91" s="43"/>
+      <c r="I91" s="43" t="s">
+        <v>219</v>
+      </c>
       <c r="J91" s="1"/>
       <c r="K91" s="44">
         <v>2</v>
@@ -5516,15 +5608,15 @@
       </c>
       <c r="M91" s="46">
         <f>VLOOKUP(D91,Q1:R9,2,FALSE)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N91" s="46">
         <f>M91*L91</f>
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="O91" s="46">
         <f>IF(M91=0,0,L91*MAX(R2:R8))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="12" customHeight="1">
@@ -5566,7 +5658,9 @@
         <v>#REF!</v>
       </c>
       <c r="H93" s="1"/>
-      <c r="I93" s="43"/>
+      <c r="I93" s="43" t="s">
+        <v>220</v>
+      </c>
       <c r="J93" s="1"/>
       <c r="K93" s="44">
         <v>4</v>
@@ -5678,7 +5772,7 @@
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="42" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1" t="e">
@@ -5690,7 +5784,9 @@
         <v>#REF!</v>
       </c>
       <c r="H97" s="1"/>
-      <c r="I97" s="43"/>
+      <c r="I97" s="43" t="s">
+        <v>221</v>
+      </c>
       <c r="J97" s="1"/>
       <c r="K97" s="44">
         <v>3</v>
@@ -5701,11 +5797,11 @@
       </c>
       <c r="M97" s="46">
         <f>VLOOKUP(D97,Q1:R9,2,FALSE)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N97" s="46">
         <f>M97*L97</f>
-        <v>2.4</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="O97" s="46">
         <f>IF(M97=0,0,L97*MAX(R2:R8))</f>
@@ -5847,7 +5943,9 @@
         <v>#REF!</v>
       </c>
       <c r="H103" s="1"/>
-      <c r="I103" s="43"/>
+      <c r="I103" s="43" t="s">
+        <v>222</v>
+      </c>
       <c r="J103" s="1"/>
       <c r="K103" s="44">
         <v>3</v>
@@ -6294,7 +6392,7 @@
       <c r="C117" s="72"/>
       <c r="D117" s="73">
         <f>IF(ISERR((N117/O117)*100),"",(N117/O117)*100)</f>
-        <v>79.555555555555557</v>
+        <v>76.84210526315789</v>
       </c>
       <c r="E117" s="74"/>
       <c r="F117" s="74"/>
@@ -6309,7 +6407,7 @@
       </c>
       <c r="J117" s="7">
         <f>IF(D117="",0,D117)</f>
-        <v>79.555555555555557</v>
+        <v>76.84210526315789</v>
       </c>
       <c r="K117" s="67">
         <f>MAX(K9:K115)</f>
@@ -6319,11 +6417,11 @@
       <c r="M117" s="67"/>
       <c r="N117" s="68">
         <f t="shared" ref="N117:O117" si="0">SUM(N9:N115)</f>
-        <v>107.4</v>
+        <v>102.19999999999999</v>
       </c>
       <c r="O117" s="68">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="1:26" ht="13.5" customHeight="1">
@@ -6339,90 +6437,90 @@
       <c r="M118" s="1"/>
     </row>
     <row r="119" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A119" s="87" t="str">
+      <c r="A119" s="89" t="str">
         <f>"* Very poor (less than "&amp;('Rating ranges'!A4)&amp;") - Users are likely to experience very significant difficulties using this site or system and might not be able to complete a significant number of important tasks."</f>
         <v>* Very poor (less than 29) - Users are likely to experience very significant difficulties using this site or system and might not be able to complete a significant number of important tasks.</v>
       </c>
-      <c r="B119" s="88"/>
-      <c r="C119" s="88"/>
-      <c r="D119" s="88"/>
-      <c r="E119" s="88"/>
-      <c r="F119" s="88"/>
-      <c r="G119" s="88"/>
-      <c r="H119" s="88"/>
-      <c r="I119" s="89"/>
+      <c r="B119" s="90"/>
+      <c r="C119" s="90"/>
+      <c r="D119" s="90"/>
+      <c r="E119" s="90"/>
+      <c r="F119" s="90"/>
+      <c r="G119" s="90"/>
+      <c r="H119" s="90"/>
+      <c r="I119" s="91"/>
       <c r="J119" s="1"/>
       <c r="K119" s="16"/>
       <c r="L119" s="16"/>
       <c r="M119" s="1"/>
     </row>
     <row r="120" spans="1:26" ht="15" customHeight="1">
-      <c r="A120" s="90" t="str">
+      <c r="A120" s="92" t="str">
         <f>"* Poor (between "&amp;('Rating ranges'!A4)&amp;" and "&amp;('Rating ranges'!A5)&amp;") - Users are likely to experience some difficulties using this site or system and might not be able to complete some important tasks."</f>
         <v>* Poor (between 29 and 49) - Users are likely to experience some difficulties using this site or system and might not be able to complete some important tasks.</v>
       </c>
-      <c r="B120" s="85"/>
-      <c r="C120" s="85"/>
-      <c r="D120" s="85"/>
-      <c r="E120" s="85"/>
-      <c r="F120" s="85"/>
-      <c r="G120" s="85"/>
-      <c r="H120" s="85"/>
-      <c r="I120" s="91"/>
+      <c r="B120" s="88"/>
+      <c r="C120" s="88"/>
+      <c r="D120" s="88"/>
+      <c r="E120" s="88"/>
+      <c r="F120" s="88"/>
+      <c r="G120" s="88"/>
+      <c r="H120" s="88"/>
+      <c r="I120" s="93"/>
       <c r="J120" s="1"/>
       <c r="K120" s="16"/>
       <c r="L120" s="16"/>
       <c r="M120" s="1"/>
     </row>
     <row r="121" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A121" s="92" t="str">
+      <c r="A121" s="94" t="str">
         <f>"* Moderate (between "&amp;('Rating ranges'!A5)&amp;" and "&amp;('Rating ranges'!A6)&amp;") - Users should be able to use this site or system and complete most important tasks, however the user experience could be significantly improved."</f>
         <v>* Moderate (between 49 and 69) - Users should be able to use this site or system and complete most important tasks, however the user experience could be significantly improved.</v>
       </c>
-      <c r="B121" s="85"/>
-      <c r="C121" s="85"/>
-      <c r="D121" s="85"/>
-      <c r="E121" s="85"/>
-      <c r="F121" s="85"/>
-      <c r="G121" s="85"/>
-      <c r="H121" s="85"/>
-      <c r="I121" s="91"/>
+      <c r="B121" s="88"/>
+      <c r="C121" s="88"/>
+      <c r="D121" s="88"/>
+      <c r="E121" s="88"/>
+      <c r="F121" s="88"/>
+      <c r="G121" s="88"/>
+      <c r="H121" s="88"/>
+      <c r="I121" s="93"/>
       <c r="J121" s="1"/>
       <c r="K121" s="16"/>
       <c r="L121" s="16"/>
       <c r="M121" s="1"/>
     </row>
     <row r="122" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A122" s="90" t="str">
+      <c r="A122" s="92" t="str">
         <f>"* Good (between "&amp;('Rating ranges'!A6)&amp;" and "&amp;('Rating ranges'!A7)&amp;") - Users should be able to use this site or system with relative ease and should be able to complete the vast majority of important tasks."</f>
         <v>* Good (between 69 and 89) - Users should be able to use this site or system with relative ease and should be able to complete the vast majority of important tasks.</v>
       </c>
-      <c r="B122" s="85"/>
-      <c r="C122" s="85"/>
-      <c r="D122" s="85"/>
-      <c r="E122" s="85"/>
-      <c r="F122" s="85"/>
-      <c r="G122" s="85"/>
-      <c r="H122" s="85"/>
-      <c r="I122" s="91"/>
+      <c r="B122" s="88"/>
+      <c r="C122" s="88"/>
+      <c r="D122" s="88"/>
+      <c r="E122" s="88"/>
+      <c r="F122" s="88"/>
+      <c r="G122" s="88"/>
+      <c r="H122" s="88"/>
+      <c r="I122" s="93"/>
       <c r="J122" s="1"/>
       <c r="K122" s="16"/>
       <c r="L122" s="16"/>
       <c r="M122" s="1"/>
     </row>
     <row r="123" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A123" s="93" t="str">
+      <c r="A123" s="95" t="str">
         <f>"* Excellent (more than "&amp;('Rating ranges'!A7)&amp;") - This site or system provides an excellent user experience for users. Users should be able to complete all important tasks on the site or system."</f>
         <v>* Excellent (more than 89) - This site or system provides an excellent user experience for users. Users should be able to complete all important tasks on the site or system.</v>
       </c>
-      <c r="B123" s="94"/>
-      <c r="C123" s="94"/>
-      <c r="D123" s="94"/>
-      <c r="E123" s="94"/>
-      <c r="F123" s="94"/>
-      <c r="G123" s="94"/>
-      <c r="H123" s="94"/>
-      <c r="I123" s="95"/>
+      <c r="B123" s="96"/>
+      <c r="C123" s="96"/>
+      <c r="D123" s="96"/>
+      <c r="E123" s="96"/>
+      <c r="F123" s="96"/>
+      <c r="G123" s="96"/>
+      <c r="H123" s="96"/>
+      <c r="I123" s="97"/>
       <c r="J123" s="1"/>
       <c r="K123" s="16"/>
       <c r="L123" s="16"/>
@@ -16965,18 +17063,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="A122:I122"/>
+    <mergeCell ref="A123:I123"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A119:I119"/>
     <mergeCell ref="A120:I120"/>
     <mergeCell ref="A121:I121"/>
-    <mergeCell ref="A122:I122"/>
-    <mergeCell ref="A123:I123"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
   </mergeCells>
   <conditionalFormatting sqref="D9 D11 D13 D15 D17 D21 D23:D25 D29 D31:D33 D35 D37 D39 D41 D43 D45 D49 D51 D53 D55 D59 D61 D63 D67 D69 D71 D73 D75 D79 D81 D83 D85 D89 D91 D93 D95 D97 D101 D103 D105 D107 D111 D113 D115">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
@@ -16999,9 +17097,9 @@
     <hyperlink ref="C126" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup orientation="landscape" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -17029,17 +17127,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="23.25" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="98"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="86"/>
       <c r="J1" s="1"/>
       <c r="K1" s="3"/>
       <c r="L1" s="5"/>
@@ -17086,10 +17184,10 @@
       <c r="V2" s="10"/>
     </row>
     <row r="3" spans="1:22" ht="24" customHeight="1">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="85"/>
+      <c r="B3" s="88"/>
       <c r="C3" s="23"/>
       <c r="D3" s="24" t="s">
         <v>10</v>
@@ -17216,19 +17314,19 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="84" t="s">
+      <c r="K7" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="84" t="s">
+      <c r="L7" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="84" t="s">
+      <c r="M7" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="86" t="s">
+      <c r="N7" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="86" t="s">
+      <c r="O7" s="99" t="s">
         <v>33</v>
       </c>
       <c r="P7" s="18"/>
@@ -17253,11 +17351,11 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="85"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
       <c r="P8" s="18"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="39"/>
@@ -20477,90 +20575,90 @@
       <c r="M118" s="1"/>
     </row>
     <row r="119" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A119" s="87" t="str">
+      <c r="A119" s="89" t="str">
         <f>"* Very poor (less than "&amp;('Rating ranges'!A4)&amp;") - Users are likely to experience very significant difficulties using this site or system and might not be able to complete a significant number of important tasks."</f>
         <v>* Very poor (less than 29) - Users are likely to experience very significant difficulties using this site or system and might not be able to complete a significant number of important tasks.</v>
       </c>
-      <c r="B119" s="88"/>
-      <c r="C119" s="88"/>
-      <c r="D119" s="88"/>
-      <c r="E119" s="88"/>
-      <c r="F119" s="88"/>
-      <c r="G119" s="88"/>
-      <c r="H119" s="88"/>
-      <c r="I119" s="89"/>
+      <c r="B119" s="90"/>
+      <c r="C119" s="90"/>
+      <c r="D119" s="90"/>
+      <c r="E119" s="90"/>
+      <c r="F119" s="90"/>
+      <c r="G119" s="90"/>
+      <c r="H119" s="90"/>
+      <c r="I119" s="91"/>
       <c r="J119" s="1"/>
       <c r="K119" s="16"/>
       <c r="L119" s="16"/>
       <c r="M119" s="1"/>
     </row>
     <row r="120" spans="1:26" ht="15" customHeight="1">
-      <c r="A120" s="90" t="str">
+      <c r="A120" s="92" t="str">
         <f>"* Poor (between "&amp;('Rating ranges'!A4)&amp;" and "&amp;('Rating ranges'!A5)&amp;") - Users are likely to experience some difficulties using this site or system and might not be able to complete some important tasks."</f>
         <v>* Poor (between 29 and 49) - Users are likely to experience some difficulties using this site or system and might not be able to complete some important tasks.</v>
       </c>
-      <c r="B120" s="85"/>
-      <c r="C120" s="85"/>
-      <c r="D120" s="85"/>
-      <c r="E120" s="85"/>
-      <c r="F120" s="85"/>
-      <c r="G120" s="85"/>
-      <c r="H120" s="85"/>
-      <c r="I120" s="91"/>
+      <c r="B120" s="88"/>
+      <c r="C120" s="88"/>
+      <c r="D120" s="88"/>
+      <c r="E120" s="88"/>
+      <c r="F120" s="88"/>
+      <c r="G120" s="88"/>
+      <c r="H120" s="88"/>
+      <c r="I120" s="93"/>
       <c r="J120" s="1"/>
       <c r="K120" s="16"/>
       <c r="L120" s="16"/>
       <c r="M120" s="1"/>
     </row>
     <row r="121" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A121" s="92" t="str">
+      <c r="A121" s="94" t="str">
         <f>"* Moderate (between "&amp;('Rating ranges'!A5)&amp;" and "&amp;('Rating ranges'!A6)&amp;") - Users should be able to use this site or system and complete most important tasks, however the user experience could be significantly improved."</f>
         <v>* Moderate (between 49 and 69) - Users should be able to use this site or system and complete most important tasks, however the user experience could be significantly improved.</v>
       </c>
-      <c r="B121" s="85"/>
-      <c r="C121" s="85"/>
-      <c r="D121" s="85"/>
-      <c r="E121" s="85"/>
-      <c r="F121" s="85"/>
-      <c r="G121" s="85"/>
-      <c r="H121" s="85"/>
-      <c r="I121" s="91"/>
+      <c r="B121" s="88"/>
+      <c r="C121" s="88"/>
+      <c r="D121" s="88"/>
+      <c r="E121" s="88"/>
+      <c r="F121" s="88"/>
+      <c r="G121" s="88"/>
+      <c r="H121" s="88"/>
+      <c r="I121" s="93"/>
       <c r="J121" s="1"/>
       <c r="K121" s="16"/>
       <c r="L121" s="16"/>
       <c r="M121" s="1"/>
     </row>
     <row r="122" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A122" s="90" t="str">
+      <c r="A122" s="92" t="str">
         <f>"* Good (between "&amp;('Rating ranges'!A6)&amp;" and "&amp;('Rating ranges'!A7)&amp;") - Users should be able to use this site or system with relative ease and should be able to complete the vast majority of important tasks."</f>
         <v>* Good (between 69 and 89) - Users should be able to use this site or system with relative ease and should be able to complete the vast majority of important tasks.</v>
       </c>
-      <c r="B122" s="85"/>
-      <c r="C122" s="85"/>
-      <c r="D122" s="85"/>
-      <c r="E122" s="85"/>
-      <c r="F122" s="85"/>
-      <c r="G122" s="85"/>
-      <c r="H122" s="85"/>
-      <c r="I122" s="91"/>
+      <c r="B122" s="88"/>
+      <c r="C122" s="88"/>
+      <c r="D122" s="88"/>
+      <c r="E122" s="88"/>
+      <c r="F122" s="88"/>
+      <c r="G122" s="88"/>
+      <c r="H122" s="88"/>
+      <c r="I122" s="93"/>
       <c r="J122" s="1"/>
       <c r="K122" s="16"/>
       <c r="L122" s="16"/>
       <c r="M122" s="1"/>
     </row>
     <row r="123" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A123" s="93" t="str">
+      <c r="A123" s="95" t="str">
         <f>"* Excellent (more than "&amp;('Rating ranges'!A7)&amp;") - This site or system provides an excellent user experience for users. Users should be able to complete all important tasks on the site or system."</f>
         <v>* Excellent (more than 89) - This site or system provides an excellent user experience for users. Users should be able to complete all important tasks on the site or system.</v>
       </c>
-      <c r="B123" s="94"/>
-      <c r="C123" s="94"/>
-      <c r="D123" s="94"/>
-      <c r="E123" s="94"/>
-      <c r="F123" s="94"/>
-      <c r="G123" s="94"/>
-      <c r="H123" s="94"/>
-      <c r="I123" s="95"/>
+      <c r="B123" s="96"/>
+      <c r="C123" s="96"/>
+      <c r="D123" s="96"/>
+      <c r="E123" s="96"/>
+      <c r="F123" s="96"/>
+      <c r="G123" s="96"/>
+      <c r="H123" s="96"/>
+      <c r="I123" s="97"/>
       <c r="J123" s="1"/>
       <c r="K123" s="16"/>
       <c r="L123" s="16"/>
@@ -31095,6 +31193,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A119:I119"/>
+    <mergeCell ref="A120:I120"/>
+    <mergeCell ref="A121:I121"/>
+    <mergeCell ref="A122:I122"/>
+    <mergeCell ref="A123:I123"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="A1:I1"/>
@@ -31102,11 +31205,6 @@
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
-    <mergeCell ref="A119:I119"/>
-    <mergeCell ref="A120:I120"/>
-    <mergeCell ref="A121:I121"/>
-    <mergeCell ref="A122:I122"/>
-    <mergeCell ref="A123:I123"/>
   </mergeCells>
   <conditionalFormatting sqref="D9 D11 D13 D15 D17 D21 D23:D25 D29 D31:D33 D35 D37 D39 D41 D43 D45 D49 D51 D53 D55 D59 D61 D63 D67 D69 D71 D73 D75 D79 D81 D83 D85 D89 D91 D93 D95 D97 D101 D103 D105 D107 D111 D113 D115">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
@@ -31146,11 +31244,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="98"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="86"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="B2" s="2"/>
@@ -35810,9 +35908,9 @@
       <c r="C1" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
     </row>
     <row r="2" spans="1:6" ht="12.75" customHeight="1">
       <c r="A2" s="60">
